--- a/medicine/Psychotrope/Sidecar_(cocktail)/Sidecar_(cocktail).xlsx
+++ b/medicine/Psychotrope/Sidecar_(cocktail)/Sidecar_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un sidecar est un cocktail officiel de l'IBA, à base de cognac, Cointreau, et jus de citron.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus anciennes publications connues de ce cocktail apparaissent avec les guides des cocktails How to mix them[1], de 1922, de Robert Vermeire, et Harry of Ciro's ABC of Mixing Cocktails[2], de 1923, du barman écossais Harry MacElhone (en) (entre autres barman puis patron du Harry's New York Bar de Paris)[3]. Ces deux guides présentent cette recette comme une création du barman McGarry, du Buck's Club (en) de Londres[4],[5]. 
-Le barman Frank Meier, du prestigieux Bar Hemingway du palace Ritz Paris, rend alors ce cocktail célèbre en 1923, sous le nom Ritz Sidecar (en)[6],[7]. En 2017, Colin Peter Field (en), barman du même palace, fait de ce cocktail « le plus cher du monde » du Livre Guinness des records, avec une version à €420 - puis à près de € 1500 - préparées avec un cognac « Ritz Fine Champagne » de 1865[8],[9],[10],[11],[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus anciennes publications connues de ce cocktail apparaissent avec les guides des cocktails How to mix them, de 1922, de Robert Vermeire, et Harry of Ciro's ABC of Mixing Cocktails, de 1923, du barman écossais Harry MacElhone (en) (entre autres barman puis patron du Harry's New York Bar de Paris). Ces deux guides présentent cette recette comme une création du barman McGarry, du Buck's Club (en) de Londres,. 
+Le barman Frank Meier, du prestigieux Bar Hemingway du palace Ritz Paris, rend alors ce cocktail célèbre en 1923, sous le nom Ritz Sidecar (en),. En 2017, Colin Peter Field (en), barman du même palace, fait de ce cocktail « le plus cher du monde » du Livre Guinness des records, avec une version à €420 - puis à près de € 1500 - préparées avec un cognac « Ritz Fine Champagne » de 1865.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recette officielle de l'IBA[13] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recette officielle de l'IBA :
 5 cl de cognac (ou d'Armagnac, ou de brandy)
 2 cl de Cointreau (ou de Grand Marnier, ou de curaçao, ou de triple sec)
 2 cl de jus de citron
-Frappez les ingrédients avec de la glace dans un shaker. Filtrez le tout dans un verre à cocktail réfrigéré. Décorez avec un bord de verre sucré et une tranche ou un zeste d'orange ou de citron[14].
+Frappez les ingrédients avec de la glace dans un shaker. Filtrez le tout dans un verre à cocktail réfrigéré. Décorez avec un bord de verre sucré et une tranche ou un zeste d'orange ou de citron.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ritz Sidecar (en), du Bar Hemingway du palace Ritz Paris.
 Honey Sidecar, avec de liqueur de miel et bénédictine.
